--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_16-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_16-17.xlsx
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>5:0</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -1378,17 +1381,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1404,13 +1407,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>28.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1422,7 +1425,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1430,13 +1433,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1448,7 +1451,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1456,17 +1459,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1482,13 +1485,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1514,11 +1517,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1534,17 +1537,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1560,17 +1563,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1578,7 +1581,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1586,17 +1589,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1604,7 +1607,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1612,7 +1615,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1630,7 +1633,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1638,13 +1641,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1664,13 +1667,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1682,7 +1685,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1690,17 +1693,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1708,7 +1711,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1716,17 +1719,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>12</v>
+        <v>11.67</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1734,7 +1737,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1742,17 +1745,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1768,7 +1771,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -1778,7 +1781,7 @@
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1786,7 +1789,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1794,17 +1797,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1820,17 +1823,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1846,13 +1849,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1864,7 +1867,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1872,13 +1875,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1898,13 +1901,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1924,7 +1927,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -1950,51 +1953,77 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
+        <v>77</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
+        <v>20</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>80</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c t="s" r="N48" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="48" ht="25.5" customHeight="1">
-      <c r="K48" s="10">
-        <v>1561.52</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" ht="17.25" customHeight="1">
-      <c t="s" r="A49" s="11">
-        <v>77</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c t="s" r="F49" s="12">
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="K49" s="10">
+        <v>1592.52</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="11">
         <v>78</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c t="s" r="I49" s="14">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c t="s" r="F50" s="12">
         <v>79</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c t="s" r="I50" s="14">
+        <v>80</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="146">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2134,10 +2163,13 @@
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:N50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
